--- a/PaperWriting/Paper_Figures_AND_tables/tables_for_paper.xlsx
+++ b/PaperWriting/Paper_Figures_AND_tables/tables_for_paper.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/GitHub/File-transfer/PaperWriting/Paper_Figures_AND_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="1560" windowWidth="28180" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28180" windowHeight="17540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="miRNA and coordination" sheetId="1" r:id="rId1"/>
     <sheet name="SNPs info" sheetId="2" r:id="rId2"/>
     <sheet name="combined haplotyes" sheetId="3" r:id="rId3"/>
+    <sheet name="4categories of CCP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">miRNA </t>
   </si>
@@ -83,13 +84,31 @@
   </si>
   <si>
     <t>Number of Patterns</t>
+  </si>
+  <si>
+    <t>Category of Combined Complementary Pattern</t>
+  </si>
+  <si>
+    <t>still mismatch</t>
+  </si>
+  <si>
+    <t>mismatch to paired</t>
+  </si>
+  <si>
+    <t>paired to mismatch</t>
+  </si>
+  <si>
+    <t>still paired</t>
+  </si>
+  <si>
+    <t>Number of Mutation Site</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +132,17 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -182,11 +212,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -195,20 +319,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +670,7 @@
       <c r="B2" s="3">
         <v>592</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>585</v>
       </c>
     </row>
@@ -530,7 +681,7 @@
       <c r="B3" s="3">
         <v>191</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>191</v>
       </c>
     </row>
@@ -541,14 +692,14 @@
       <c r="B4" s="3">
         <v>401</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -557,7 +708,7 @@
       <c r="B6" s="3">
         <v>713</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>703</v>
       </c>
     </row>
@@ -568,7 +719,7 @@
       <c r="B7" s="3">
         <v>220</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>220</v>
       </c>
     </row>
@@ -579,7 +730,7 @@
       <c r="B8" s="3">
         <v>493</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>483</v>
       </c>
     </row>
@@ -681,7 +832,7 @@
       <c r="C7" s="3">
         <v>9217</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -694,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -839,4 +990,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="13">
+        <v>2059</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="13">
+        <v>3979</v>
+      </c>
+      <c r="C3" s="14">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13">
+        <v>13840</v>
+      </c>
+      <c r="C4" s="14">
+        <v>19845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="16">
+        <v>179</v>
+      </c>
+      <c r="C5" s="17">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>